--- a/coverage/coverage_process/Kratos_jaccard_similarity_matrix-v7.1.xlsx
+++ b/coverage/coverage_process/Kratos_jaccard_similarity_matrix-v7.1.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test_refine</t>
+          <t>MeshingApplication_test_refine</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -509,7 +509,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>test_MeshingApplication</t>
+          <t>MeshingApplication_test_MeshingApplication</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -540,7 +540,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>MeshingApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>MeshingApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -602,7 +602,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Kratos_Execute_Meshing_Test</t>
+          <t>MeshingApplication_Kratos_Execute_Meshing_Test</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -633,7 +633,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test_remesh_sphere</t>
+          <t>MeshingApplication_test_remesh_sphere</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -664,7 +664,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NightlyTests</t>
+          <t>MeshingApplication_NightlyTests</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -695,7 +695,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>MeshingApplication_SmallTests</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -726,7 +726,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>test_FreeSurfaceApplication</t>
+          <t>FreeSurfaceApplication_test_FreeSurfaceApplication</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -757,7 +757,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>FreeSurfaceApplication_generalTests</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -788,7 +788,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_shells</t>
+          <t>StructuralMechanicsApplication_test_patch_test_shells</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -819,7 +819,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_formfinding</t>
+          <t>StructuralMechanicsApplication_test_patch_test_formfinding</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -850,7 +850,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>restart_tests</t>
+          <t>StructuralMechanicsApplication_restart_tests</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -881,7 +881,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>test_StructuralMechanicsApplication_mpi</t>
+          <t>StructuralMechanicsApplication_test_StructuralMechanicsApplication_mpi</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -912,7 +912,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_small_strain</t>
+          <t>StructuralMechanicsApplication_test_patch_test_small_strain</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -943,7 +943,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_cr_beam</t>
+          <t>StructuralMechanicsApplication_test_patch_test_cr_beam</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -974,7 +974,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>test_perfect_plasticity_implementation_verification</t>
+          <t>StructuralMechanicsApplication_test_perfect_plasticity_implementation_verification</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1005,7 +1005,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>structural_response_function_test_factory</t>
+          <t>StructuralMechanicsApplication_structural_response_function_test_factory</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1036,7 +1036,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>test_quadratic_elements</t>
+          <t>StructuralMechanicsApplication_test_quadratic_elements</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1067,7 +1067,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>test_cr_beam_adjoint_element_3d2n</t>
+          <t>StructuralMechanicsApplication_test_cr_beam_adjoint_element_3d2n</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1098,7 +1098,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>structural_mechanics_test_factory_mpi</t>
+          <t>StructuralMechanicsApplication_structural_mechanics_test_factory_mpi</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>test_local_axis_visualization</t>
+          <t>StructuralMechanicsApplication_test_local_axis_visualization</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1160,7 +1160,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>test_loading_conditions_line</t>
+          <t>StructuralMechanicsApplication_test_loading_conditions_line</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1191,7 +1191,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_truss</t>
+          <t>StructuralMechanicsApplication_test_patch_test_truss</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1222,7 +1222,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_law</t>
+          <t>StructuralMechanicsApplication_test_constitutive_law</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1253,7 +1253,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>StructuralMechanicsApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1284,7 +1284,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>test_adjoint_sensitity_analysis_beam_3d2n_structure</t>
+          <t>StructuralMechanicsApplication_test_adjoint_sensitity_analysis_beam_3d2n_structure</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1315,7 +1315,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>test_adjoint_sensitity_analysis_shell_3d3n_structure</t>
+          <t>StructuralMechanicsApplication_test_adjoint_sensitity_analysis_shell_3d3n_structure</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1346,7 +1346,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>test_harmonic_analysis</t>
+          <t>StructuralMechanicsApplication_test_harmonic_analysis</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1377,7 +1377,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>test_compute_mass_moment_of_inertia</t>
+          <t>StructuralMechanicsApplication_test_compute_mass_moment_of_inertia</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1408,7 +1408,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>test_nodal_damping</t>
+          <t>StructuralMechanicsApplication_test_nodal_damping</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1439,7 +1439,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>test_postprocess_eigenvalues_process</t>
+          <t>StructuralMechanicsApplication_test_postprocess_eigenvalues_process</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1470,7 +1470,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>test_loading_conditions_point</t>
+          <t>StructuralMechanicsApplication_test_loading_conditions_point</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1501,7 +1501,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>test_linear_thin_shell_adjoint_element_3d3n</t>
+          <t>StructuralMechanicsApplication_test_linear_thin_shell_adjoint_element_3d3n</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1532,7 +1532,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>test_truss_adjoint_element_3d2n</t>
+          <t>StructuralMechanicsApplication_test_truss_adjoint_element_3d2n</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1563,7 +1563,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>test_dynamic_schemes</t>
+          <t>StructuralMechanicsApplication_test_dynamic_schemes</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1594,7 +1594,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_shells_stress</t>
+          <t>StructuralMechanicsApplication_test_patch_test_shells_stress</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1625,7 +1625,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>test_StructuralMechanicsApplication</t>
+          <t>StructuralMechanicsApplication_test_StructuralMechanicsApplication</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1656,7 +1656,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_small_strain_bbar</t>
+          <t>StructuralMechanicsApplication_test_patch_test_small_strain_bbar</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1687,7 +1687,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_shells_orthotropic</t>
+          <t>StructuralMechanicsApplication_test_patch_test_shells_orthotropic</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1718,7 +1718,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_membrane</t>
+          <t>StructuralMechanicsApplication_test_patch_test_membrane</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1749,7 +1749,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>test_spring_damper_element</t>
+          <t>StructuralMechanicsApplication_test_spring_damper_element</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1780,7 +1780,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>test_mass_calculation</t>
+          <t>StructuralMechanicsApplication_test_mass_calculation</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1811,7 +1811,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>test_multipoint_contstraints</t>
+          <t>StructuralMechanicsApplication_test_multipoint_contstraints</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1842,7 +1842,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>test_compute_center_of_gravity</t>
+          <t>StructuralMechanicsApplication_test_compute_center_of_gravity</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1873,7 +1873,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>test_loading_conditions_surface</t>
+          <t>StructuralMechanicsApplication_test_loading_conditions_surface</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1904,7 +1904,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>test_adjoint_sensitity_analysis_truss_3d2n_structure</t>
+          <t>StructuralMechanicsApplication_test_adjoint_sensitity_analysis_truss_3d2n_structure</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1935,7 +1935,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_large_strain</t>
+          <t>StructuralMechanicsApplication_test_patch_test_large_strain</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1966,7 +1966,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>run_analysis_benchmark_candelier</t>
+          <t>candelier_tests_run_analysis_benchmark_candelier</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1997,7 +1997,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>SwimmingDEMApplication_TestFactory</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2028,7 +2028,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>test_SwimmingDEMApplication</t>
+          <t>SwimmingDEMApplication_test_SwimmingDEMApplication</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2059,7 +2059,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>SwimmingDEMApplication_NightTests</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2090,7 +2090,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>SwimmingDEMApplication_SmallTests</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2121,7 +2121,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>StabilizedCFDApplication_generalTests</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2152,7 +2152,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>test_StabilizedCFDApplication</t>
+          <t>StabilizedCFDApplication_test_StabilizedCFDApplication</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2183,7 +2183,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>node_surface_geometry_3d_tests</t>
+          <t>IgaApplication_node_surface_geometry_3d_tests</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2214,7 +2214,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>iga_truss_element_tests</t>
+          <t>IgaApplication_iga_truss_element_tests</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2245,7 +2245,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>IgaApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2276,7 +2276,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>node_curve_geometry_3d_tests</t>
+          <t>IgaApplication_node_curve_geometry_3d_tests</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2307,7 +2307,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>test_IgaApplication</t>
+          <t>IgaApplication_test_IgaApplication</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2338,7 +2338,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>shell_kl_discrete_element_tests</t>
+          <t>IgaApplication_shell_kl_discrete_element_tests</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2369,7 +2369,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>DelaunayMeshingApplication_generalTests</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2400,7 +2400,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>test_DelaunayMeshingApplication</t>
+          <t>DelaunayMeshingApplication_test_DelaunayMeshingApplication</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2431,7 +2431,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>CoreTests</t>
+          <t>SolidMechanicsApplication_CoreTests</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2462,7 +2462,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>SolidMechanicsApplication_run_test</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2493,7 +2493,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_tests</t>
+          <t>SolidMechanicsApplication_run_cpp_tests</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2524,7 +2524,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>SolidMechanicsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2555,7 +2555,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>SolidMechanicsApplication_materials</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2586,7 +2586,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>test_SolidMechanicsApplication</t>
+          <t>SolidMechanicsApplication_test_SolidMechanicsApplication</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2617,7 +2617,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>SolidMechanicsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2648,7 +2648,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>SolidMechanicsApplication_NightTests</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2679,7 +2679,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>SolidMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2710,7 +2710,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>LagrangianMPMApplication_generalTests</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2741,7 +2741,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>test_LagrangianMPMApplication</t>
+          <t>LagrangianMPMApplication_test_LagrangianMPMApplication</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2772,7 +2772,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>impact01.gid_materials</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2803,7 +2803,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>test_search_mpm_particle</t>
+          <t>ParticleMechanicsApplication_test_search_mpm_particle</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2834,7 +2834,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>test_static_loading_conditions_surface</t>
+          <t>ParticleMechanicsApplication_test_static_loading_conditions_surface</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2865,7 +2865,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>test_static_loading_conditions_line</t>
+          <t>ParticleMechanicsApplication_test_static_loading_conditions_line</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2896,7 +2896,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>ParticleMechanicsApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2927,7 +2927,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>particle_mechanics_test_factory</t>
+          <t>ParticleMechanicsApplication_particle_mechanics_test_factory</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2958,7 +2958,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>test_static_loading_conditions_point</t>
+          <t>ParticleMechanicsApplication_test_static_loading_conditions_point</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2989,7 +2989,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>test_ParticleMechanicsApplication</t>
+          <t>ParticleMechanicsApplication_test_ParticleMechanicsApplication</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3020,7 +3020,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>test_particle_erase_process</t>
+          <t>ParticleMechanicsApplication_test_particle_erase_process</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3051,7 +3051,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>test_generate_mpm_particle</t>
+          <t>ParticleMechanicsApplication_test_generate_mpm_particle</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3082,7 +3082,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>test_generate_mpm_particle_condition</t>
+          <t>ParticleMechanicsApplication_test_generate_mpm_particle_condition</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3113,7 +3113,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>test_MultilevelMonteCarloApplication</t>
+          <t>MultilevelMonteCarloApplication_test_MultilevelMonteCarloApplication</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3144,7 +3144,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>test_multilevel_montecarlo</t>
+          <t>MultilevelMonteCarloApplication_test_multilevel_montecarlo</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3175,7 +3175,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>PoromechanicsApplication_run_test</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3206,7 +3206,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>test_PoromechanicsApplication</t>
+          <t>PoromechanicsApplication_test_PoromechanicsApplication</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3237,7 +3237,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>PoromechanicsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3268,7 +3268,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>PoromechanicsApplication_NightTests</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3299,7 +3299,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>PoromechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3330,7 +3330,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>contact_structural_mechanics_test_factory</t>
+          <t>ContactStructuralMechanicsApplication_contact_structural_mechanics_test_factory</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3361,7 +3361,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>ContactStructuralMechanicsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3392,7 +3392,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>ContactStructuralMechanicsApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3423,7 +3423,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>test_dynamic_search</t>
+          <t>ContactStructuralMechanicsApplication_test_dynamic_search</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3454,7 +3454,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>test_mortar_mapper</t>
+          <t>ContactStructuralMechanicsApplication_test_mortar_mapper</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3485,7 +3485,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>test_double_curvature_integration</t>
+          <t>ContactStructuralMechanicsApplication_test_double_curvature_integration</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3516,7 +3516,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>test_process_factory</t>
+          <t>ContactStructuralMechanicsApplication_test_process_factory</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3547,7 +3547,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>NightlyTests</t>
+          <t>ContactStructuralMechanicsApplication_NightlyTests</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3578,7 +3578,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>ContactStructuralMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3609,7 +3609,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>test_ContactStructuralMechanicsApplication</t>
+          <t>ContactStructuralMechanicsApplication_test_ContactStructuralMechanicsApplication</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3640,7 +3640,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>ContactMechanicsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3671,7 +3671,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>ContactMechanicsApplication_materials</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3702,7 +3702,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>test_ContactMechanicsApplication</t>
+          <t>ContactMechanicsApplication_test_ContactMechanicsApplication</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3733,7 +3733,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>ContactMechanicsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3764,7 +3764,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>ContactMechanicsApplication_NightTests</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3795,7 +3795,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>ContactMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3826,7 +3826,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>test_eigensystem_solver</t>
+          <t>EigenSolversApplication_test_eigensystem_solver</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3857,7 +3857,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>test_EigenSolversApplication</t>
+          <t>EigenSolversApplication_test_EigenSolversApplication</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3888,7 +3888,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>test_eigen_direct_solver</t>
+          <t>EigenSolversApplication_test_eigen_direct_solver</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3919,7 +3919,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>co_simulation_test_factory</t>
+          <t>EmpireApplication_co_simulation_test_factory</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3950,7 +3950,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>co_simulation_test_case</t>
+          <t>EmpireApplication_co_simulation_test_case</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3981,7 +3981,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>fluid_dynamics_analysis_with_empire</t>
+          <t>test_empire_solver_fluid_dynamics_analysis_with_empire</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4012,7 +4012,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>MainCoSim</t>
+          <t>test_empire_solver_MainCoSim</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4043,7 +4043,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>co_simulation_solver_test_factory</t>
+          <t>EmpireApplication_co_simulation_solver_test_factory</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4074,7 +4074,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>test_EmpireApplication</t>
+          <t>EmpireApplication_test_EmpireApplication</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4105,7 +4105,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>convergence_accelerator_test</t>
+          <t>FSIapplication_convergence_accelerator_test</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4136,7 +4136,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>convergence_accelerator_spring_MPI_test</t>
+          <t>FSIapplication_convergence_accelerator_spring_MPI_test</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4167,7 +4167,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>convergence_accelerator_spring_test</t>
+          <t>FSIapplication_convergence_accelerator_spring_test</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4198,7 +4198,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>test_mpi_FSIApplication</t>
+          <t>FSIapplication_test_mpi_FSIApplication</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4229,7 +4229,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>mok_benchmark_test</t>
+          <t>FSIapplication_mok_benchmark_test</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4260,7 +4260,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>non_conformant_one_side_map_test</t>
+          <t>FSIapplication_non_conformant_one_side_map_test</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4291,7 +4291,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>test_FSIApplication</t>
+          <t>FSIapplication_test_FSIApplication</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4322,7 +4322,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>FSI_problem_emulator_test</t>
+          <t>FSIapplication_FSI_problem_emulator_test</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4353,7 +4353,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>trust_region_projector_test_run_test</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4384,7 +4384,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>opt_process_eigenfrequency_test_run_test</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4415,7 +4415,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>opt_process_step_adaption_test_run_test</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4446,7 +4446,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>test_ShapeOptimizationApplication</t>
+          <t>ShapeOptimizationApplication_test_ShapeOptimizationApplication</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4477,7 +4477,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>shape_optimization_test_factory</t>
+          <t>ShapeOptimizationApplication_shape_optimization_test_factory</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4508,7 +4508,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>opt_process_solid_test_run_test</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4539,7 +4539,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>algorithm_steepest_descent_test_run_test</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4570,7 +4570,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>mapper_test_run_test</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4601,7 +4601,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>algorithm_penalized_projection_test_run_test</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4632,7 +4632,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>opt_process_vertex_morphing_test_run_test</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4663,7 +4663,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>opt_process_weighted_eigenfrequency_test_run_test</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4694,7 +4694,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>algorithm_bead_optimization_test_run_test</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4725,7 +4725,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>opt_process_shell_test_run_test</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4756,7 +4756,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>algorithm_trust_region_test_run_test</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4787,7 +4787,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>test_HDF5Application</t>
+          <t>HDF5Application_test_HDF5Application</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4818,7 +4818,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>test_hdf5_model_part_io_mpi</t>
+          <t>HDF5Application_test_hdf5_model_part_io_mpi</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4849,7 +4849,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>HDF5Application_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4880,7 +4880,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>test_hdf5_model_part_io</t>
+          <t>HDF5Application_test_hdf5_model_part_io</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4911,7 +4911,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>test_hdf5_processes</t>
+          <t>HDF5Application_test_hdf5_processes</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4942,7 +4942,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>test_HDF5Application_mpi</t>
+          <t>HDF5Application_test_HDF5Application_mpi</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4973,7 +4973,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>test_CompressiblePotentialFlowApplication</t>
+          <t>CompressiblePotentialFlowApplication_test_CompressiblePotentialFlowApplication</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5004,7 +5004,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>CompressiblePotentialFlowApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5035,7 +5035,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>potential_flow_test_factory</t>
+          <t>CompressiblePotentialFlowApplication_potential_flow_test_factory</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5066,7 +5066,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>base_mapper_tests</t>
+          <t>MappingApplication_base_mapper_tests</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5097,7 +5097,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_mappers</t>
+          <t>MappingApplication_test_patch_test_mappers</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5128,7 +5128,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>runscript_test_MappingApplication</t>
+          <t>MappingApplication_runscript_test_MappingApplication</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5159,7 +5159,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>MappingApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5190,7 +5190,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>KratosExecuteMapperTests</t>
+          <t>MappingApplication_KratosExecuteMapperTests</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5221,7 +5221,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>test_mapper_tests</t>
+          <t>MappingApplication_test_mapper_tests</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -5252,7 +5252,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>test_mapper_mpi_tests</t>
+          <t>MappingApplication_test_mapper_mpi_tests</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5283,7 +5283,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>NearestNeighborMapperTest</t>
+          <t>MappingApplication_NearestNeighborMapperTest</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -5314,7 +5314,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>test_mapper_flags_tests</t>
+          <t>MappingApplication_test_mapper_flags_tests</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5345,7 +5345,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>MappingApplication_SmallTests</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5376,7 +5376,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>test_MappingApplication</t>
+          <t>MappingApplication_test_MappingApplication</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5407,7 +5407,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>NearestElementMapperTest2D</t>
+          <t>MappingApplication_NearestElementMapperTest2D</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5438,7 +5438,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>test_MappingApplication_mpi</t>
+          <t>MappingApplication_test_MappingApplication_mpi</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -5469,7 +5469,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>test_glued_particles</t>
+          <t>DEMApplication_test_glued_particles</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5500,7 +5500,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>test_particle_creator_destructor</t>
+          <t>DEMApplication_test_particle_creator_destructor</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5531,7 +5531,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>test_wall_creator_destructor</t>
+          <t>DEMApplication_test_wall_creator_destructor</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5562,7 +5562,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>test_analytics</t>
+          <t>DEMApplication_test_analytics</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5593,7 +5593,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>test_DEMApplication</t>
+          <t>DEMApplication_test_DEMApplication</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5624,7 +5624,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>test_guis</t>
+          <t>DEMApplication_test_guis</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5655,7 +5655,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>test_trilinos_linear_solvers</t>
+          <t>trilinos_application_test_trilinos_linear_solvers</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5686,7 +5686,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>test_mpi_communicator</t>
+          <t>trilinos_application_test_mpi_communicator</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5717,7 +5717,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>test_trilinos_matrix</t>
+          <t>trilinos_application_test_trilinos_matrix</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5748,7 +5748,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>test_trilinos_redistance</t>
+          <t>trilinos_application_test_trilinos_redistance</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5779,7 +5779,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>test_trilinos_levelset_convection</t>
+          <t>trilinos_application_test_trilinos_levelset_convection</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -5810,7 +5810,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>test_TrilinosApplication</t>
+          <t>trilinos_application_test_TrilinosApplication</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5841,7 +5841,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>test_kratos_mpi_interface</t>
+          <t>trilinos_application_test_kratos_mpi_interface</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5872,7 +5872,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>test_structural_mesh_motion_2d</t>
+          <t>MeshMovingApplication_test_structural_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5903,7 +5903,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_laplacian_mesh_motion_3d</t>
+          <t>MeshMovingApplication_mpi_test_laplacian_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -5934,7 +5934,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>impose_ale_rectangle_test_motion_process</t>
+          <t>MeshMovingApplication_impose_ale_rectangle_test_motion_process</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -5965,7 +5965,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>test_ale_fluid_solver</t>
+          <t>MeshMovingApplication_test_ale_fluid_solver</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -5996,7 +5996,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>test_laplacian_mesh_motion_2d</t>
+          <t>MeshMovingApplication_test_laplacian_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -6027,7 +6027,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_structural_mesh_motion_3d</t>
+          <t>MeshMovingApplication_mpi_test_structural_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -6058,7 +6058,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>MeshMovingApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -6089,7 +6089,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>test_MeshMovingApplication</t>
+          <t>MeshMovingApplication_test_MeshMovingApplication</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6120,7 +6120,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>test_structural_mesh_motion_3d</t>
+          <t>MeshMovingApplication_test_structural_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6151,7 +6151,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>MainKratos</t>
+          <t>test_example_MainKratos</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -6182,7 +6182,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_structural_mesh_motion_2d</t>
+          <t>MeshMovingApplication_mpi_test_structural_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -6213,7 +6213,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>test_MeshMovingApplication_mpi</t>
+          <t>MeshMovingApplication_test_MeshMovingApplication_mpi</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6244,7 +6244,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_laplacian_mesh_motion_2d</t>
+          <t>MeshMovingApplication_mpi_test_laplacian_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -6275,7 +6275,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>test_laplacian_mesh_motion_3d</t>
+          <t>MeshMovingApplication_test_laplacian_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -6306,7 +6306,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>mesh_moving_test_case</t>
+          <t>MeshMovingApplication_mesh_moving_test_case</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -6337,7 +6337,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>cam_clay_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -6368,7 +6368,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>cam_clay_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -6399,7 +6399,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>begin_J2_SS_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6430,7 +6430,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>begin_J2_SS_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -6461,7 +6461,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>assign_materials_process</t>
+          <t>begin_J2_SS_example_assign_materials_process</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6492,7 +6492,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>real_cam_clay_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -6523,7 +6523,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>real_cam_clay_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6554,7 +6554,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>clw_test_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6585,7 +6585,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>clw_test_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6616,7 +6616,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>ConstitutiveModelsApplication_run_test</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6647,7 +6647,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>ConstitutiveModelsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6678,7 +6678,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>MainKratos</t>
+          <t>validation_MainKratos</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6709,7 +6709,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>test_modified_cam_clay</t>
+          <t>ConstitutiveModelsApplication_test_modified_cam_clay</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -6740,7 +6740,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>test_ConstitutiveModelsApplication</t>
+          <t>ConstitutiveModelsApplication_test_ConstitutiveModelsApplication</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -6771,7 +6771,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>ConstitutiveModelsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -6802,7 +6802,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>source_term_test</t>
+          <t>convection_diffusion_application_source_term_test</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -6833,7 +6833,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>convection_diffusion_test_factory</t>
+          <t>convection_diffusion_application_convection_diffusion_test_factory</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -6864,7 +6864,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>convection_diffusion_application_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -6895,7 +6895,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>thermal_coupling_test</t>
+          <t>convection_diffusion_application_thermal_coupling_test</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -6926,7 +6926,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>test_apply_thermal_face_process</t>
+          <t>convection_diffusion_application_test_apply_thermal_face_process</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -6957,7 +6957,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>test_ConvectionDiffusionApplication</t>
+          <t>convection_diffusion_application_test_ConvectionDiffusionApplication</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -6988,7 +6988,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>ShallowWaterApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7019,7 +7019,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>test_ShallowWaterApplication</t>
+          <t>ShallowWaterApplication_test_ShallowWaterApplication</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7050,7 +7050,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>NightlyTests</t>
+          <t>ShallowWaterApplication_NightlyTests</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7081,7 +7081,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>ShallowWaterApplication_SmallTests</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7112,7 +7112,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>shallow_water_test_factory</t>
+          <t>ShallowWaterApplication_shallow_water_test_factory</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7143,7 +7143,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>PfemApplication_run_test</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -7174,7 +7174,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>test_PfemApplication</t>
+          <t>PfemApplication_test_PfemApplication</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -7205,7 +7205,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>PfemApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -7236,7 +7236,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>PfemApplication_materials</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -7267,7 +7267,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>PfemApplication_TestFactory</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -7298,7 +7298,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>PfemApplication_NightTests</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -7329,7 +7329,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>PfemApplication_SmallTests</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -7360,7 +7360,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>manufactured_solution_test</t>
+          <t>FluidDynamicsApplication_manufactured_solution_test</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -7391,7 +7391,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>two_fluid_inlet_test</t>
+          <t>FluidDynamicsApplication_two_fluid_inlet_test</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -7422,7 +7422,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>adjoint_fluid_test</t>
+          <t>FluidDynamicsApplication_adjoint_fluid_test</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -7453,7 +7453,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>adjoint_mpi_vms_sensitivity_2d</t>
+          <t>FluidDynamicsApplication_adjoint_mpi_vms_sensitivity_2d</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -7484,7 +7484,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>adjoint_vms_sensitivity_2d</t>
+          <t>FluidDynamicsApplication_adjoint_vms_sensitivity_2d</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -7515,7 +7515,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>navier_stokes_wall_condition_test</t>
+          <t>FluidDynamicsApplication_navier_stokes_wall_condition_test</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -7546,7 +7546,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>embedded_velocity_inlet_emulation_test</t>
+          <t>FluidDynamicsApplication_embedded_velocity_inlet_emulation_test</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -7577,7 +7577,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>time_integrated_fluid_element_test</t>
+          <t>FluidDynamicsApplication_time_integrated_fluid_element_test</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -7608,7 +7608,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>artificial_compressibility_test</t>
+          <t>FluidDynamicsApplication_artificial_compressibility_test</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -7639,7 +7639,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>embedded_reservoir_discontinuous_test</t>
+          <t>FluidDynamicsApplication_embedded_reservoir_discontinuous_test</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -7670,7 +7670,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>FluidDynamicsApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -7701,7 +7701,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>test_FluidDynamicsApplication</t>
+          <t>FluidDynamicsApplication_test_FluidDynamicsApplication</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -7732,7 +7732,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>adjoint_vms_element_2d</t>
+          <t>FluidDynamicsApplication_adjoint_vms_element_2d</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -7763,7 +7763,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>two_fluid_mass_conservation_test</t>
+          <t>FluidDynamicsApplication_two_fluid_mass_conservation_test</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -7794,7 +7794,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>embedded_reservoir_test</t>
+          <t>FluidDynamicsApplication_embedded_reservoir_test</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -7825,7 +7825,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>darcy_channel_test</t>
+          <t>FluidDynamicsApplication_darcy_channel_test</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -7856,7 +7856,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>embedded_couette_test</t>
+          <t>FluidDynamicsApplication_embedded_couette_test</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -7887,7 +7887,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>test_statistics_process</t>
+          <t>FluidDynamicsApplication_test_statistics_process</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -7918,7 +7918,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>hdf5_io_test</t>
+          <t>FluidDynamicsApplication_hdf5_io_test</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -7949,7 +7949,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>fluid_analysis_test</t>
+          <t>FluidDynamicsApplication_fluid_analysis_test</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -7980,7 +7980,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>two_fluid_hydrostatic_pool_test</t>
+          <t>FluidDynamicsApplication_two_fluid_hydrostatic_pool_test</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8011,7 +8011,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>volume_source_test</t>
+          <t>FluidDynamicsApplication_volume_source_test</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -8042,7 +8042,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>embedded_couette_imposed_test</t>
+          <t>FluidDynamicsApplication_embedded_couette_imposed_test</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -8073,7 +8073,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>test_FluidDynamicsApplication_mpi</t>
+          <t>FluidDynamicsApplication_test_FluidDynamicsApplication_mpi</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -8104,7 +8104,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>buoyancy_test</t>
+          <t>FluidDynamicsApplication_buoyancy_test</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -8135,7 +8135,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>fluid_element_test</t>
+          <t>FluidDynamicsApplication_fluid_element_test</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -8166,7 +8166,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>fluid_analysis_without_solution</t>
+          <t>FluidDynamicsApplication_fluid_analysis_without_solution</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -8197,7 +8197,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>PfemFluidDynamicsApplication_run_test</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -8228,7 +8228,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>test_PfemFluidDynamicsApplication</t>
+          <t>PfemFluidDynamicsApplication_test_PfemFluidDynamicsApplication</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -8259,7 +8259,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>PfemFluidDynamicsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -8290,7 +8290,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>PfemFluidDynamicsApplication_NightTests</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -8321,7 +8321,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>PfemFluidDynamicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B255" t="n">
